--- a/biology/Écologie/Indice_de_performance_environnementale/Indice_de_performance_environnementale.xlsx
+++ b/biology/Écologie/Indice_de_performance_environnementale/Indice_de_performance_environnementale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de performance environnementale ou IPE (en anglais : Environmental Performance Index ou EPI) est un indice permettant d'évaluer, de comparer et d'améliorer l'efficacité des politiques environnementales des pays du monde. Évaluant la performance environnementale, il a été établi pour la première fois en 2006 par des chercheurs des universités américaines Yale et Columbia.
 Publié tous les deux ans, le rapport de 2022 classe 180 pays. Les cinq premiers sont le Danemark, le Royaume-Uni, la Finlande, Malte et la Suède, tandis que l'Inde se positionne dernière du classement.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publié pour la première fois en janvier 2006 par des chercheurs des universités américaines Yale et Columbia[1], il remplace l'indice de durabilité environnementale (Environmental Sustainability Index) calculé de 1999 à 2005[2]. Il est créé pour faire suite à une demande du Forum économique mondial de Davos afin de comparer la performance environnementale des pays et d'encourager l'amélioration des politiques en matière de santé environnementale, de protection des écosystèmes et d'atténuation du changement climatique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publié pour la première fois en janvier 2006 par des chercheurs des universités américaines Yale et Columbia, il remplace l'indice de durabilité environnementale (Environmental Sustainability Index) calculé de 1999 à 2005. Il est créé pour faire suite à une demande du Forum économique mondial de Davos afin de comparer la performance environnementale des pays et d'encourager l'amélioration des politiques en matière de santé environnementale, de protection des écosystèmes et d'atténuation du changement climatique.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Principes et critères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IPE se focalise sur la manière dont l'environnement est pris en compte par un pays plutôt que l'état effectif de l'environnement. Les indicateurs utilisés — de pression, d'état, d'évolution et de réponse — reflètent les politiques implémentées[4].
-Le calcul de l'IPE n'est pas constant au fil des années. En 2022, il tenait compte de 40 indicateurs de performance répartis dans 11 catégories et regroupés en trois objectifs : l'amélioration de la santé environnementale, la protection de la vitalité des écosystèmes et l'atténuation du changement climatique[5].
-Chaque donnée environnementale de départ est transformée en un indicateur compris entre 0 et 100. Un score de 100 indique qu'un pays a atteint un objectif de durabilité reconnu au niveau international ou un consensus de bonne performance parmi les experts. Ces scores sont ensuite pondérés puis regroupés par catégorie puis par objectif afin de former un seul indice pour chaque pays[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IPE se focalise sur la manière dont l'environnement est pris en compte par un pays plutôt que l'état effectif de l'environnement. Les indicateurs utilisés — de pression, d'état, d'évolution et de réponse — reflètent les politiques implémentées.
+Le calcul de l'IPE n'est pas constant au fil des années. En 2022, il tenait compte de 40 indicateurs de performance répartis dans 11 catégories et regroupés en trois objectifs : l'amélioration de la santé environnementale, la protection de la vitalité des écosystèmes et l'atténuation du changement climatique.
+Chaque donnée environnementale de départ est transformée en un indicateur compris entre 0 et 100. Un score de 100 indique qu'un pays a atteint un objectif de durabilité reconnu au niveau international ou un consensus de bonne performance parmi les experts. Ces scores sont ensuite pondérés puis regroupés par catégorie puis par objectif afin de former un seul indice pour chaque pays.
 Les indicateurs de 2022 sont listés dans le tableau suivant.
 </t>
         </is>
@@ -577,12 +593,49 @@
           <t>Classement 2022</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le tableau suivant liste les pays du monde classés en 2022 selon leur indice de performance environnementale et les trois objectifs définis.
-Parmi les 24 premiers pays, 23 font partie de l'Europe, notamment le Danemark, le Royaume-Uni, la Finlande, Malte et la Suède en tête du classement. À l'inverse, la fin du classement est caractérisée par la présence de pays d'Asie, notamment le Pakistan, le Bangladesh, le Viêt Nam, le Myanmar et l'Inde[5].
-France
-Le rapport de 2022 de l'EPI pour les performances environnementales place la France au 12e rang sur les 180 pays[6]. Ce classement a été obtenu grâce à trois catégories et la notation de leurs critères :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau suivant liste les pays du monde classés en 2022 selon leur indice de performance environnementale et les trois objectifs définis.
+Parmi les 24 premiers pays, 23 font partie de l'Europe, notamment le Danemark, le Royaume-Uni, la Finlande, Malte et la Suède en tête du classement. À l'inverse, la fin du classement est caractérisée par la présence de pays d'Asie, notamment le Pakistan, le Bangladesh, le Viêt Nam, le Myanmar et l'Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Indice_de_performance_environnementale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indice_de_performance_environnementale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classement 2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le rapport de 2022 de l'EPI pour les performances environnementales place la France au 12e rang sur les 180 pays. Ce classement a été obtenu grâce à trois catégories et la notation de leurs critères :
 santé environnementale (12e rang, score : 83,9)
 gestion des déchets (21e rang, score : 63,8)
 pollution plastique (89e rang, score : 29,6)
@@ -639,34 +692,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Indice_de_performance_environnementale</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Indice_de_performance_environnementale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthodologie employée pour calculer l'IPE a été critiquée en raison du choix arbitraire de ses paramètres qui pourrait introduire des biais, ainsi que pour ses mauvaises performances en tant qu'indicateur de durabilité environnementale. D'autres critiques portent sur le manque de recommandations politiques et sur les biais de pondération de l'indice des pays avec peu de données, ce qui conduirait à négliger les progrès écologiques des pays en développement au profit des pays développés[7],[4].
-En 2022, l'Inde a été classée en dernière position ; elle a remis en question la méthodologie employée et a rejeté les résultats de l'indice. Le ministère de l'Environnement, des Forêts et du Changement climatique a précisé que de nombreux facteurs importants avaient été ignorés (par exemple la qualité de l'eau, la quantité de déchets générée par habitant ou le gaspillage alimentaire) ou étaient incomplets, des pondérations mises à jour étaient injustifiées et que le calcul reposait sur des hypothèses infondées et des méthodes scientifiquement contestables[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthodologie employée pour calculer l'IPE a été critiquée en raison du choix arbitraire de ses paramètres qui pourrait introduire des biais, ainsi que pour ses mauvaises performances en tant qu'indicateur de durabilité environnementale. D'autres critiques portent sur le manque de recommandations politiques et sur les biais de pondération de l'indice des pays avec peu de données, ce qui conduirait à négliger les progrès écologiques des pays en développement au profit des pays développés,.
+En 2022, l'Inde a été classée en dernière position ; elle a remis en question la méthodologie employée et a rejeté les résultats de l'indice. Le ministère de l'Environnement, des Forêts et du Changement climatique a précisé que de nombreux facteurs importants avaient été ignorés (par exemple la qualité de l'eau, la quantité de déchets générée par habitant ou le gaspillage alimentaire) ou étaient incomplets, des pondérations mises à jour étaient injustifiées et que le calcul reposait sur des hypothèses infondées et des méthodes scientifiquement contestables,.
 </t>
         </is>
       </c>
